--- a/biology/Zoologie/Batrachylidae/Batrachylidae.xlsx
+++ b/biology/Zoologie/Batrachylidae/Batrachylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Batrachylidae sont une famille d'amphibiens. Elle a été créée par José María Alfonso Félix Gallardo (1925-1994) en 1965.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ses quatre genres se rencontrent en Argentine et au Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ses quatre genres se rencontrent en Argentine et au Chili.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 Atelognathus Lynch, 1978
 Batrachyla Bell, 1843
 Chaltenobatrachus Basso, Úbeda, Bunge &amp; Martinazzo, 2011
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gallardo, 1965 : A proposito de los Leptodactylidae (Amphibia, Anura). Papeis Avulsos de Zoologia, vol. 17, no 8, p. 77-87.</t>
         </is>
